--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H2">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I2">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J2">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06312366666666668</v>
+        <v>0.092254</v>
       </c>
       <c r="N2">
-        <v>0.189371</v>
+        <v>0.276762</v>
       </c>
       <c r="O2">
-        <v>0.4062595868561119</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4062595868561119</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.8076983508027777</v>
+        <v>0.454164320158</v>
       </c>
       <c r="R2">
-        <v>7.269285157225</v>
+        <v>4.087478881421999</v>
       </c>
       <c r="S2">
-        <v>0.2090591216802391</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="T2">
-        <v>0.2090591216802392</v>
+        <v>0.2897120038548412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.79549166666667</v>
+        <v>9.803896</v>
       </c>
       <c r="H3">
-        <v>38.386475</v>
+        <v>29.411688</v>
       </c>
       <c r="I3">
-        <v>0.5145949251267348</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J3">
-        <v>0.5145949251267349</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>0.276762</v>
       </c>
       <c r="O3">
-        <v>0.593740413143888</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5937404131438881</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.180435288216667</v>
+        <v>0.904448621584</v>
       </c>
       <c r="R3">
-        <v>10.62391759395</v>
+        <v>8.140037594256</v>
       </c>
       <c r="S3">
-        <v>0.3055358034464956</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="T3">
-        <v>0.3055358034464958</v>
+        <v>0.5769489387710858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,232 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.803896</v>
+        <v>2.265785</v>
       </c>
       <c r="H4">
-        <v>29.411688</v>
+        <v>6.797355</v>
       </c>
       <c r="I4">
-        <v>0.3942822409249843</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J4">
-        <v>0.3942822409249843</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06312366666666668</v>
+        <v>0.092254</v>
       </c>
       <c r="N4">
-        <v>0.189371</v>
+        <v>0.276762</v>
       </c>
       <c r="O4">
-        <v>0.4062595868561119</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4062595868561119</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.6188578631386668</v>
+        <v>0.20902772939</v>
       </c>
       <c r="R4">
-        <v>5.569720768248</v>
+        <v>1.88124956451</v>
       </c>
       <c r="S4">
-        <v>0.1601809403028861</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="T4">
-        <v>0.1601809403028861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>9.803896</v>
-      </c>
-      <c r="H5">
-        <v>29.411688</v>
-      </c>
-      <c r="I5">
-        <v>0.3942822409249843</v>
-      </c>
-      <c r="J5">
-        <v>0.3942822409249843</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.092254</v>
-      </c>
-      <c r="N5">
-        <v>0.276762</v>
-      </c>
-      <c r="O5">
-        <v>0.593740413143888</v>
-      </c>
-      <c r="P5">
-        <v>0.5937404131438881</v>
-      </c>
-      <c r="Q5">
-        <v>0.904448621584</v>
-      </c>
-      <c r="R5">
-        <v>8.140037594256</v>
-      </c>
-      <c r="S5">
-        <v>0.2341013006220982</v>
-      </c>
-      <c r="T5">
-        <v>0.2341013006220982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.265785</v>
-      </c>
-      <c r="H6">
-        <v>6.797355</v>
-      </c>
-      <c r="I6">
-        <v>0.0911228339482809</v>
-      </c>
-      <c r="J6">
-        <v>0.09112283394828093</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.06312366666666668</v>
-      </c>
-      <c r="N6">
-        <v>0.189371</v>
-      </c>
-      <c r="O6">
-        <v>0.4062595868561119</v>
-      </c>
-      <c r="P6">
-        <v>0.4062595868561119</v>
-      </c>
-      <c r="Q6">
-        <v>0.1430246570783333</v>
-      </c>
-      <c r="R6">
-        <v>1.287221913705</v>
-      </c>
-      <c r="S6">
-        <v>0.03701952487298668</v>
-      </c>
-      <c r="T6">
-        <v>0.03701952487298669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.265785</v>
-      </c>
-      <c r="H7">
-        <v>6.797355</v>
-      </c>
-      <c r="I7">
-        <v>0.0911228339482809</v>
-      </c>
-      <c r="J7">
-        <v>0.09112283394828093</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.092254</v>
-      </c>
-      <c r="N7">
-        <v>0.276762</v>
-      </c>
-      <c r="O7">
-        <v>0.593740413143888</v>
-      </c>
-      <c r="P7">
-        <v>0.5937404131438881</v>
-      </c>
-      <c r="Q7">
-        <v>0.20902772939</v>
-      </c>
-      <c r="R7">
-        <v>1.88124956451</v>
-      </c>
-      <c r="S7">
-        <v>0.0541033090752942</v>
-      </c>
-      <c r="T7">
-        <v>0.05410330907529423</v>
+        <v>0.133339057374073</v>
       </c>
     </row>
   </sheetData>
